--- a/data/trans_orig/P1401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>7286</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3917</v>
+        <v>3103</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14637</v>
+        <v>14395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01035765711222341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005567654835517208</v>
+        <v>0.004410533261589088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02080662411798941</v>
+        <v>0.02046272617682628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -764,19 +764,19 @@
         <v>11448</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6174</v>
+        <v>6015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20702</v>
+        <v>19626</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01642331057628084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008857575211010488</v>
+        <v>0.008629073628790309</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02970000472845243</v>
+        <v>0.02815643940231605</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -785,19 +785,19 @@
         <v>18734</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11496</v>
+        <v>11437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29287</v>
+        <v>28523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01337658353091355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00820860881557502</v>
+        <v>0.008165935188405036</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02091174949290498</v>
+        <v>0.02036613298442829</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>696183</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>688832</v>
+        <v>689074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>699552</v>
+        <v>700366</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9896423428877766</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9791933758820104</v>
+        <v>0.979537273823173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9944323451644828</v>
+        <v>0.9955894667384109</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>639</v>
@@ -835,19 +835,19 @@
         <v>685602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>676348</v>
+        <v>677424</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>690876</v>
+        <v>691035</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9835766894237191</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9702999952715489</v>
+        <v>0.9718435605976836</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9911424247889896</v>
+        <v>0.9913709263712096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1306</v>
@@ -856,19 +856,19 @@
         <v>1381785</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1371232</v>
+        <v>1371996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1389023</v>
+        <v>1389082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9866234164690865</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.979088250507095</v>
+        <v>0.9796338670155718</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9917913911844251</v>
+        <v>0.991834064811595</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>7676</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3202</v>
+        <v>3191</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17720</v>
+        <v>17960</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007540339643773289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003146013147780161</v>
+        <v>0.003135195035656279</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01740729254210398</v>
+        <v>0.01764300314148462</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -981,19 +981,19 @@
         <v>19522</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11893</v>
+        <v>11877</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30537</v>
+        <v>32107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01897254933825824</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01155784067747532</v>
+        <v>0.01154305215810068</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02967737063907636</v>
+        <v>0.03120302699483928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -1002,19 +1002,19 @@
         <v>27198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17667</v>
+        <v>18285</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39276</v>
+        <v>40330</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01328723566308082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008631227645677281</v>
+        <v>0.008932881396782154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01918766804068373</v>
+        <v>0.01970272339592827</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1010271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1000227</v>
+        <v>999987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1014745</v>
+        <v>1014756</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9924596603562267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9825927074578958</v>
+        <v>0.9823569968585154</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9968539868522198</v>
+        <v>0.9968648049643437</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>920</v>
@@ -1052,19 +1052,19 @@
         <v>1009451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>998436</v>
+        <v>996866</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1017080</v>
+        <v>1017096</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9810274506617418</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9703226293609236</v>
+        <v>0.9687969730051609</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9884421593225247</v>
+        <v>0.9884569478418994</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1850</v>
@@ -1073,19 +1073,19 @@
         <v>2019723</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2007645</v>
+        <v>2006591</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2029254</v>
+        <v>2028636</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9867127643369191</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9808123319593165</v>
+        <v>0.9802972766040717</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9913687723543227</v>
+        <v>0.9910671186032179</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>6918</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3064</v>
+        <v>2969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13955</v>
+        <v>14169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009131043638494908</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004043805421195178</v>
+        <v>0.00391897831122965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01841883155626082</v>
+        <v>0.0187014013244721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1198,19 +1198,19 @@
         <v>13403</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7169</v>
+        <v>7339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24866</v>
+        <v>24250</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01724630711735247</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009224472874817731</v>
+        <v>0.009442991514955477</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03199597849209855</v>
+        <v>0.03120299925687851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1219,19 +1219,19 @@
         <v>20321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12020</v>
+        <v>11445</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30867</v>
+        <v>31708</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01324036266402051</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007831924200397787</v>
+        <v>0.007456926884849349</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02011151478340855</v>
+        <v>0.02065936267194708</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>750705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>743668</v>
+        <v>743454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754559</v>
+        <v>754654</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9908689563615051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9815811684437392</v>
+        <v>0.9812985986755282</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959561945788049</v>
+        <v>0.9960810216887703</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>694</v>
@@ -1269,19 +1269,19 @@
         <v>763771</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>752308</v>
+        <v>752924</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>770005</v>
+        <v>769835</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9827536928826476</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9680040215079019</v>
+        <v>0.9687970007431211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9907755271251822</v>
+        <v>0.9905570084850445</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1376</v>
@@ -1290,19 +1290,19 @@
         <v>1514476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1503930</v>
+        <v>1503089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1522777</v>
+        <v>1523352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9867596373359795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9798884852165913</v>
+        <v>0.9793406373280527</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9921680757996022</v>
+        <v>0.9925430731151507</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>17285</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10001</v>
+        <v>10033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27021</v>
+        <v>28340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01823842177712195</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01055276566337906</v>
+        <v>0.01058593341524953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02851088270697949</v>
+        <v>0.02990232878730065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1415,19 +1415,19 @@
         <v>27244</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17514</v>
+        <v>17775</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40216</v>
+        <v>39810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02589956609940856</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01664960193124865</v>
+        <v>0.01689768803032179</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03823162449018992</v>
+        <v>0.03784534165596708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1436,19 +1436,19 @@
         <v>44529</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32068</v>
+        <v>31498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60381</v>
+        <v>58809</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02226852914882627</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01603685559445565</v>
+        <v>0.01575176203787329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03019586189477851</v>
+        <v>0.02940973787198099</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>930454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920718</v>
+        <v>919399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>937738</v>
+        <v>937706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.981761578222878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9714891172930205</v>
+        <v>0.9700976712126991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.989447234336621</v>
+        <v>0.9894140665847504</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>979</v>
@@ -1486,19 +1486,19 @@
         <v>1024657</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1011685</v>
+        <v>1012091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1034387</v>
+        <v>1034126</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9741004339005914</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9617683755098094</v>
+        <v>0.9621546583440329</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9833503980687512</v>
+        <v>0.9831023119696783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1873</v>
@@ -1507,19 +1507,19 @@
         <v>1955111</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1939259</v>
+        <v>1940831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1967572</v>
+        <v>1968142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9777314708511737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9698041381052215</v>
+        <v>0.9705902621280189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9839631444055443</v>
+        <v>0.9842482379621266</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>39165</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27619</v>
+        <v>27750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55431</v>
+        <v>53614</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01142913561301609</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008059799138195253</v>
+        <v>0.008098023121163835</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01617597474595156</v>
+        <v>0.01564549599607374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -1632,19 +1632,19 @@
         <v>71617</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55584</v>
+        <v>55302</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90904</v>
+        <v>91415</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02014494967712189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01563507143042243</v>
+        <v>0.01555557253733681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02557017915098592</v>
+        <v>0.02571390034372019</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -1653,19 +1653,19 @@
         <v>110782</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90900</v>
+        <v>91205</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>133959</v>
+        <v>134930</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01586713640480587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01301943790997223</v>
+        <v>0.01306309214784829</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01918661199189271</v>
+        <v>0.01932570415121194</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3387614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3371348</v>
+        <v>3373165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3399160</v>
+        <v>3399029</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9885708643869839</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9838240252540474</v>
+        <v>0.9843545040039265</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9919402008618046</v>
+        <v>0.9919019768788367</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3232</v>
@@ -1703,19 +1703,19 @@
         <v>3483481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3464194</v>
+        <v>3463683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3499514</v>
+        <v>3499796</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9798550503228781</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9744298208490141</v>
+        <v>0.9742860996562799</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9843649285695776</v>
+        <v>0.9844444274626631</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6405</v>
@@ -1724,19 +1724,19 @@
         <v>6871095</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6847918</v>
+        <v>6846947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6890977</v>
+        <v>6890672</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9841328635951941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9808133880081074</v>
+        <v>0.9806742958487883</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.986980562090028</v>
+        <v>0.9869369078521517</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>6019</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2326</v>
+        <v>2196</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12685</v>
+        <v>13948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008920246728844257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003447302297126888</v>
+        <v>0.003253698901749652</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01879783674624498</v>
+        <v>0.02066963913073602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2089,19 +2089,19 @@
         <v>16273</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9819</v>
+        <v>9371</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28248</v>
+        <v>27398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02418626725645892</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01459390931484123</v>
+        <v>0.01392781857383479</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04198266369374896</v>
+        <v>0.04071937005218917</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2110,19 +2110,19 @@
         <v>22293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13612</v>
+        <v>13679</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32714</v>
+        <v>33476</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01654214990238436</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01010065810483665</v>
+        <v>0.01015059974382595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02427469723994943</v>
+        <v>0.02484022929787323</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>668781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>662115</v>
+        <v>660852</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>672474</v>
+        <v>672604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9910797532711557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9812021632537551</v>
+        <v>0.9793303608692645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9965526977028731</v>
+        <v>0.9967463010982505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>651</v>
@@ -2160,19 +2160,19 @@
         <v>656566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>644591</v>
+        <v>645441</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>663020</v>
+        <v>663468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9758137327435411</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9580173363062511</v>
+        <v>0.9592806299478116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9854060906851589</v>
+        <v>0.9860721814261653</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1297</v>
@@ -2181,19 +2181,19 @@
         <v>1325346</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1314925</v>
+        <v>1314163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1334027</v>
+        <v>1333960</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9834578500976157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9757253027600505</v>
+        <v>0.9751597707021268</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9898993418951634</v>
+        <v>0.9898494002561739</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>7850</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3147</v>
+        <v>3781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15111</v>
+        <v>15509</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007677471127128456</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003078214086626947</v>
+        <v>0.003697755892286615</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01477953858762944</v>
+        <v>0.01516834413938935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -2306,19 +2306,19 @@
         <v>15887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9212</v>
+        <v>9336</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26257</v>
+        <v>26828</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01523325618654461</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008832482038998106</v>
+        <v>0.008951979673345991</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02517656262549995</v>
+        <v>0.02572444054915933</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -2327,19 +2327,19 @@
         <v>23737</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15570</v>
+        <v>15561</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35075</v>
+        <v>35912</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01149282900569694</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007538829785588438</v>
+        <v>0.007534184664820962</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01698287667760661</v>
+        <v>0.01738782909991041</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1014581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1007320</v>
+        <v>1006922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1019284</v>
+        <v>1018650</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9923225288728715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9852204614123709</v>
+        <v>0.9848316558606111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969217859133732</v>
+        <v>0.9963022441077135</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>963</v>
@@ -2377,19 +2377,19 @@
         <v>1027026</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1016656</v>
+        <v>1016085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1033701</v>
+        <v>1033577</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9847667438134554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9748234373744993</v>
+        <v>0.9742755594508407</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9911675179610019</v>
+        <v>0.991048020326654</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1906</v>
@@ -2398,19 +2398,19 @@
         <v>2041607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2030269</v>
+        <v>2029432</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2049774</v>
+        <v>2049783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9885071709943031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.983017123322393</v>
+        <v>0.9826121709000896</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9924611702144113</v>
+        <v>0.992465815335179</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>4653</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1741</v>
+        <v>1795</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10714</v>
+        <v>10351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00612635236499472</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002292094397289764</v>
+        <v>0.002363583047508101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01410556732170723</v>
+        <v>0.0136279745442243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2523,19 +2523,19 @@
         <v>10103</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5195</v>
+        <v>4864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19351</v>
+        <v>18429</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01287020855982234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006617279139438687</v>
+        <v>0.006196339498676833</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02465022883977352</v>
+        <v>0.02347621383678634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -2544,19 +2544,19 @@
         <v>14757</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8800</v>
+        <v>8279</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25453</v>
+        <v>24229</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00955385907457407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005697490256489888</v>
+        <v>0.005359862684236606</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01647931549543307</v>
+        <v>0.0156863228794814</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>754899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748838</v>
+        <v>749201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>757811</v>
+        <v>757757</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9938736476350053</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858944326782926</v>
+        <v>0.9863720254557755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977079056027102</v>
+        <v>0.9976364169524918</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>727</v>
@@ -2594,19 +2594,19 @@
         <v>774908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>765660</v>
+        <v>766582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>779816</v>
+        <v>780147</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9871297914401777</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9753497711602265</v>
+        <v>0.9765237861632137</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9933827208605613</v>
+        <v>0.9938036605013232</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1418</v>
@@ -2615,19 +2615,19 @@
         <v>1529806</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1519110</v>
+        <v>1520334</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1535763</v>
+        <v>1536284</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9904461409254259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9835206845045673</v>
+        <v>0.9843136771205186</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9943025097435103</v>
+        <v>0.9946401373157635</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>11212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6244</v>
+        <v>6240</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19179</v>
+        <v>19107</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01195838781226652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006659900785317126</v>
+        <v>0.006655570457198323</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02045561160995451</v>
+        <v>0.02037951589259765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2740,19 +2740,19 @@
         <v>28887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19243</v>
+        <v>18566</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42072</v>
+        <v>41748</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0276750948584101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01843622199125169</v>
+        <v>0.017787203551144</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04030731125902021</v>
+        <v>0.03999695502063466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -2761,19 +2761,19 @@
         <v>40098</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28544</v>
+        <v>28556</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55249</v>
+        <v>55048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02023799615194857</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01440616266341383</v>
+        <v>0.01441242752858901</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02788449735631973</v>
+        <v>0.02778315053701949</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>926355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918388</v>
+        <v>918460</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931323</v>
+        <v>931327</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9880416121877335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9795443883900453</v>
+        <v>0.9796204841074022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9933400992146828</v>
+        <v>0.9933444295428017</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>934</v>
@@ -2811,19 +2811,19 @@
         <v>1014892</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1001707</v>
+        <v>1002031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1024536</v>
+        <v>1025213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9723249051415899</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9596926887409801</v>
+        <v>0.9600030449793654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9815637780087484</v>
+        <v>0.9822127964488563</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1854</v>
@@ -2832,19 +2832,19 @@
         <v>1941248</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1926097</v>
+        <v>1926298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1952802</v>
+        <v>1952790</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9797620038480515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9721155026436803</v>
+        <v>0.9722168494629805</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9855938373365863</v>
+        <v>0.985587572471411</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>29734</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19942</v>
+        <v>20409</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41177</v>
+        <v>41854</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008759891864754007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005875129054632713</v>
+        <v>0.006012663502166194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01213118422083618</v>
+        <v>0.01233062206713025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -2957,19 +2957,19 @@
         <v>71150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55028</v>
+        <v>55157</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91385</v>
+        <v>90289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02007321760088127</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01552466136360415</v>
+        <v>0.0155609749644652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02578182698676238</v>
+        <v>0.02547279040303148</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -2978,19 +2978,19 @@
         <v>100884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80781</v>
+        <v>82015</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>121736</v>
+        <v>123783</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01453899265530997</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01164178854685763</v>
+        <v>0.01181961781437155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01754400291887724</v>
+        <v>0.01783899248062969</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3364616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3353173</v>
+        <v>3352496</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3374408</v>
+        <v>3373941</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.991240108135246</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9878688157791637</v>
+        <v>0.9876693779328696</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9941248709453673</v>
+        <v>0.9939873364978338</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3275</v>
@@ -3028,19 +3028,19 @@
         <v>3473392</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3453157</v>
+        <v>3454253</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3489514</v>
+        <v>3489385</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9799267823991187</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9742181730132374</v>
+        <v>0.9745272095969685</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9844753386363957</v>
+        <v>0.9844390250355347</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6475</v>
@@ -3049,19 +3049,19 @@
         <v>6838008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6817156</v>
+        <v>6815109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6858111</v>
+        <v>6856877</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.98546100734469</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.982455997081123</v>
+        <v>0.9821610075193704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9883582114531425</v>
+        <v>0.9881803821856285</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>12753</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7690</v>
+        <v>7793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20064</v>
+        <v>19633</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01846364792745563</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01113313367807162</v>
+        <v>0.01128235261681709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02904819481744027</v>
+        <v>0.0284247889837206</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -3414,19 +3414,19 @@
         <v>17901</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12669</v>
+        <v>12514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25710</v>
+        <v>24621</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02443132960272225</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01729065621716541</v>
+        <v>0.0170783337352146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03508884542757777</v>
+        <v>0.03360168589306611</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -3435,19 +3435,19 @@
         <v>30654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23585</v>
+        <v>23429</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40561</v>
+        <v>40234</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02153555613814701</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01656945723613071</v>
+        <v>0.01645942882734431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02849529189302487</v>
+        <v>0.02826542036231247</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>677957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>670646</v>
+        <v>671077</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>683020</v>
+        <v>682917</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9815363520725444</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9709518051825593</v>
+        <v>0.9715752110162794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9888668663219283</v>
+        <v>0.9887176473831829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1202</v>
@@ -3485,19 +3485,19 @@
         <v>714821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>707012</v>
+        <v>708101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>720053</v>
+        <v>720208</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9755686703972777</v>
+        <v>0.9755686703972776</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9649111545724224</v>
+        <v>0.9663983141069339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9827093437828347</v>
+        <v>0.9829216662647855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1912</v>
@@ -3506,19 +3506,19 @@
         <v>1392777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1382870</v>
+        <v>1383197</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1399846</v>
+        <v>1400002</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9784644438618528</v>
+        <v>0.9784644438618529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.971504708106975</v>
+        <v>0.9717345796376876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9834305427638693</v>
+        <v>0.9835405711726557</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>21150</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13813</v>
+        <v>13804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32276</v>
+        <v>31027</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02016397539755902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01316835160565772</v>
+        <v>0.01315976477583029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03077035658113982</v>
+        <v>0.0295803163871307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -3631,19 +3631,19 @@
         <v>23736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16988</v>
+        <v>17360</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31736</v>
+        <v>31994</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02218737567423194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01588023086161799</v>
+        <v>0.01622802218145548</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0296660725060316</v>
+        <v>0.02990682182872254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -3652,19 +3652,19 @@
         <v>44886</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34778</v>
+        <v>34524</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57285</v>
+        <v>56617</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02118563698600082</v>
+        <v>0.02118563698600083</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01641495108543801</v>
+        <v>0.01629477855724915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02703763875014787</v>
+        <v>0.02672251986860768</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>1027767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1016641</v>
+        <v>1017890</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1035104</v>
+        <v>1035113</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9798360246024411</v>
+        <v>0.979836024602441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9692296434188603</v>
+        <v>0.9704196836128692</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868316483943421</v>
+        <v>0.9868402352241697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1474</v>
@@ -3702,19 +3702,19 @@
         <v>1046042</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1038042</v>
+        <v>1037784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1052790</v>
+        <v>1052418</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9778126243257681</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9703339274939684</v>
+        <v>0.9700931781712774</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.984119769138382</v>
+        <v>0.9837719778185444</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2412</v>
@@ -3723,19 +3723,19 @@
         <v>2073810</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2061411</v>
+        <v>2062079</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2083918</v>
+        <v>2084172</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.978814363013999</v>
+        <v>0.9788143630139995</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.972962361249852</v>
+        <v>0.9732774801313928</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9835850489145619</v>
+        <v>0.9837052214427507</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>15501</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9149</v>
+        <v>9485</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24429</v>
+        <v>24060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01942035125791377</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01146258566093545</v>
+        <v>0.01188276776508956</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0306045743445585</v>
+        <v>0.03014298777723924</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3848,19 +3848,19 @@
         <v>12000</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7559</v>
+        <v>7284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18456</v>
+        <v>18256</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01483719189084985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009346655044389357</v>
+        <v>0.009005970775195549</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02282016601659468</v>
+        <v>0.02257320614232728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -3869,19 +3869,19 @@
         <v>27501</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20184</v>
+        <v>19513</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38018</v>
+        <v>38539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01711370709276147</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01256050211703048</v>
+        <v>0.01214293140003112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02365854569643273</v>
+        <v>0.02398267830528115</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>782698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>773770</v>
+        <v>774139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>789050</v>
+        <v>788714</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9805796487420863</v>
+        <v>0.9805796487420861</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9693954256554415</v>
+        <v>0.9698570122227615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9885374143390648</v>
+        <v>0.9881172322349108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1023</v>
@@ -3919,19 +3919,19 @@
         <v>796763</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>790307</v>
+        <v>790507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>801204</v>
+        <v>801479</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9851628081091504</v>
+        <v>0.9851628081091502</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9771798339834057</v>
+        <v>0.9774267938576724</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9906533449556107</v>
+        <v>0.9909940292248043</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1677</v>
@@ -3940,19 +3940,19 @@
         <v>1579461</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1568944</v>
+        <v>1568423</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1586778</v>
+        <v>1587449</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9828862929072386</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9763414543035673</v>
+        <v>0.976017321694719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9874394978829697</v>
+        <v>0.9878570685999691</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>25103</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18041</v>
+        <v>16688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36443</v>
+        <v>35985</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02542866996359412</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01827541118237152</v>
+        <v>0.01690433651561679</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03691610319786599</v>
+        <v>0.03645201302784745</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -4065,19 +4065,19 @@
         <v>31181</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23367</v>
+        <v>23530</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40163</v>
+        <v>39816</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02789902409876077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02090798797194026</v>
+        <v>0.02105368187498582</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03593546421340212</v>
+        <v>0.03562509399364817</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -4086,19 +4086,19 @@
         <v>56284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44960</v>
+        <v>45766</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69034</v>
+        <v>69870</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02674040259685727</v>
+        <v>0.02674040259685728</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02136059288046838</v>
+        <v>0.02174346201197712</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03279819085750293</v>
+        <v>0.03319530656250738</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>962076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>950736</v>
+        <v>951194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>969138</v>
+        <v>970491</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9745713300364059</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9630838968021344</v>
+        <v>0.9635479869721527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9817245888176287</v>
+        <v>0.983095663484383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1507</v>
@@ -4136,19 +4136,19 @@
         <v>1086453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1077471</v>
+        <v>1077818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1094267</v>
+        <v>1094104</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9721009759012393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.964064535786598</v>
+        <v>0.9643749060063517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9790920120280601</v>
+        <v>0.9789463181250141</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2478</v>
@@ -4157,19 +4157,19 @@
         <v>2048529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2035779</v>
+        <v>2034943</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2059853</v>
+        <v>2059047</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9732595974031425</v>
+        <v>0.9732595974031428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.967201809142497</v>
+        <v>0.9668046934374924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9786394071195316</v>
+        <v>0.9782565379880229</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>74507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58964</v>
+        <v>60378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89690</v>
+        <v>91361</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0211367975075312</v>
+        <v>0.02113679750753121</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01672744122566788</v>
+        <v>0.01712862388300899</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02544391999231321</v>
+        <v>0.02591787712276243</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -4282,19 +4282,19 @@
         <v>84818</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73122</v>
+        <v>72344</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101369</v>
+        <v>101757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02274603163368115</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01960948639670532</v>
+        <v>0.01940096895507384</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02718458507051721</v>
+        <v>0.02728888186621466</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>243</v>
@@ -4303,19 +4303,19 @@
         <v>159325</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>136971</v>
+        <v>139938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>180038</v>
+        <v>182774</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02196403072294269</v>
+        <v>0.02196403072294268</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01888243783869211</v>
+        <v>0.01929137887073013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02481949213045919</v>
+        <v>0.02519666334247721</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3450497</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3435314</v>
+        <v>3433643</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3466040</v>
+        <v>3464626</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9788632024924688</v>
+        <v>0.9788632024924689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9745560800076868</v>
+        <v>0.9740821228772377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9832725587743323</v>
+        <v>0.9828713761169912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5206</v>
@@ -4353,19 +4353,19 @@
         <v>3644079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3627528</v>
+        <v>3627140</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3655775</v>
+        <v>3656553</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9772539683663188</v>
+        <v>0.9772539683663189</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9728154149294823</v>
+        <v>0.9727111181337846</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9803905136032944</v>
+        <v>0.9805990310449261</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8479</v>
@@ -4374,19 +4374,19 @@
         <v>7094576</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7073863</v>
+        <v>7071127</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7116930</v>
+        <v>7113963</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9780359692770573</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9751805078695408</v>
+        <v>0.9748033366575227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9811175621613085</v>
+        <v>0.9807086211292697</v>
       </c>
     </row>
     <row r="18">
